--- a/media/extract_description/raw_files/output2_maybank_statement4.xlsx
+++ b/media/extract_description/raw_files/output2_maybank_statement4.xlsx
@@ -99,7 +99,7 @@
     <t>246.80-</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN</t>
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN</t>
   </si>
   <si>
     <t>ATM DEPOSIT</t>
